--- a/test_data/Book1.xlsx
+++ b/test_data/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Robotframework project\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF32E75-79F5-4B1B-AC42-8D4B786C0CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB3782-C8B0-4697-8E93-613332EAAC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{19A69EC7-EECF-4304-A2C9-81DCFD239A97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{19A69EC7-EECF-4304-A2C9-81DCFD239A97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F6791-5260-4BF0-A07B-D2C53D56C019}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A0AE87-5CF2-4ECB-89A7-D5B12DE7792C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
